--- a/ncbi_submission/seq_template.xlsx
+++ b/ncbi_submission/seq_template.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/zebrafish_mecp2_expression/ncbi_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ABC88D-401D-D746-A960-F159D93AE571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23E28A-53E3-B442-9C04-042F6B90ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qZzD4R9MHkY34uacjqt3UDyeD61BQpRgIo5GituA+M5TJZYrZGlKZCDSkAkMk0lzHa20F9kBcNHoSPrpZkW+dg==" workbookSaltValue="NTRFdVUfx51db2iwG+fWhA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="874" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -5804,7 +5804,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="623">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -8441,6 +8441,12 @@
   </si>
   <si>
     <t>mecp2Q63X</t>
+  </si>
+  <si>
+    <t>Embryo</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -9238,6 +9244,21 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -9252,21 +9273,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -13604,8 +13610,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="B28" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -13993,22 +13999,28 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="72" t="s">
         <v>598</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G34" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I34" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>13</v>
@@ -14023,22 +14035,28 @@
       <c r="P34" s="14"/>
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="72" t="s">
         <v>600</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G35" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I35" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>13</v>
@@ -14053,21 +14071,27 @@
       <c r="P35" s="14"/>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="72" t="s">
         <v>601</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G36" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I36" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>13</v>
@@ -14082,22 +14106,28 @@
       <c r="P36" s="14"/>
     </row>
     <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="72" t="s">
         <v>602</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G37" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I37" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>13</v>
@@ -14112,22 +14142,28 @@
       <c r="P37" s="14"/>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="72" t="s">
         <v>603</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G38" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I38" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>13</v>
@@ -14142,22 +14178,28 @@
       <c r="P38" s="14"/>
     </row>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="72" t="s">
         <v>604</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G39" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I39" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>13</v>
@@ -14172,22 +14214,28 @@
       <c r="P39" s="14"/>
     </row>
     <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="72" t="s">
         <v>605</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G40" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I40" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>13</v>
@@ -14202,22 +14250,28 @@
       <c r="P40" s="14"/>
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="72" t="s">
         <v>606</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G41" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I41" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>13</v>
@@ -14232,22 +14286,28 @@
       <c r="P41" s="14"/>
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="72" t="s">
         <v>607</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G42" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I42" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>13</v>
@@ -14262,22 +14322,28 @@
       <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="72" t="s">
         <v>599</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G43" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I43" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>13</v>
@@ -14292,22 +14358,28 @@
       <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="72" t="s">
         <v>608</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="F44" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G44" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H44" s="14"/>
+      <c r="H44" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I44" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>13</v>
@@ -14322,22 +14394,28 @@
       <c r="P44" s="14"/>
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="72" t="s">
         <v>610</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G45" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I45" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>13</v>
@@ -14352,22 +14430,28 @@
       <c r="P45" s="14"/>
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="72" t="s">
         <v>611</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G46" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I46" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>13</v>
@@ -14382,22 +14466,28 @@
       <c r="P46" s="14"/>
     </row>
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="72" t="s">
         <v>612</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G47" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H47" s="14"/>
+      <c r="H47" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I47" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>13</v>
@@ -14412,22 +14502,28 @@
       <c r="P47" s="14"/>
     </row>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="72" t="s">
         <v>613</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G48" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H48" s="14"/>
+      <c r="H48" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I48" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>13</v>
@@ -14442,22 +14538,28 @@
       <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="72" t="s">
         <v>614</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G49" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H49" s="14"/>
+      <c r="H49" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I49" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>13</v>
@@ -14472,22 +14574,28 @@
       <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="72" t="s">
         <v>615</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G50" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H50" s="14"/>
+      <c r="H50" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I50" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>13</v>
@@ -14502,22 +14610,28 @@
       <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="72" t="s">
         <v>616</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G51" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I51" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>13</v>
@@ -14532,22 +14646,28 @@
       <c r="P51" s="14"/>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="72" t="s">
         <v>617</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G52" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I52" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>13</v>
@@ -14562,22 +14682,28 @@
       <c r="P52" s="14"/>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="72" t="s">
         <v>609</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>621</v>
+      </c>
       <c r="G53" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14" t="s">
+        <v>622</v>
+      </c>
       <c r="I53" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>13</v>
@@ -15163,7 +15289,7 @@
     <cfRule type="duplicateValues" dxfId="5" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A58 A34:A53">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="29"/>
   </conditionalFormatting>
   <dataValidations xWindow="367" yWindow="405" count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="One contributer per row, e.g." prompt="Jane, Doe_x000a_Yixin, Wang_x000a_John, H, Smith_x000a_Charles,E,Determan Jr_x000a_Monique,G,van der Wijst_x000a_Mark, Anderson Dumont_x000a_(insert additional rows as needed)_x000a_" sqref="B14:C17" xr:uid="{E3B18FF0-8187-4483-A85F-019FF99D71B4}"/>
@@ -15177,7 +15303,7 @@
       <formula1>50</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List the name of any processed data files (one per row) that were derived from multiple samples. For instance, bulkRNA-seq tables that include library names as headers, or &quot;merged&quot; peak files." sqref="B18:C18" xr:uid="{38E8CDD9-437B-46E7-BC82-569009D0AD05}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="H34" xr:uid="{DD3BF453-67A7-457F-8A50-2AA2F9C643F5}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="H34:H53" xr:uid="{DD3BF453-67A7-457F-8A50-2AA2F9C643F5}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="C65 B18" xr:uid="{1DA8B795-5C89-4577-8836-DB7AEFB725B7}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the drop down menu" sqref="J57:J58 I34:I56" xr:uid="{4B61C4DA-D826-4533-9531-93FAAFEF6886}">
       <formula1>"polyA RNA,total RNA, nuclear RNA, cytoplasmic RNA, genomic DNA,protein,other"</formula1>
@@ -15190,7 +15316,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the cell line used, if applicable. For example:_x000a_HeLa_x000a_HEK293_x000a_A549" sqref="F57:F58 E34:E56" xr:uid="{22185DB1-F1B6-4642-9A12-2889E7D560EC}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the cell type. Examples include:_x000a_PBMCs_x000a_Adipocytes_x000a_neural progenitor cells (NPCs)_x000a_" sqref="G57:G58 F34:F56" xr:uid="{AD947475-09CC-48B9-8265-B9811301F615}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the genotype (if applicable). If not applicable change &quot;genotype&quot; to something else. For example: strain, sex, cultivar, breed, age, developmental stage, etc" sqref="H57:H58 G34:G56" xr:uid="{E4E9BB68-E9AC-40EB-9161-0960CBF212EC}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="I57:I58 H35:H56" xr:uid="{47B6B633-8A68-4530-9AD8-BD49CE875996}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="I57:I58 H54:H56" xr:uid="{47B6B633-8A68-4530-9AD8-BD49CE875996}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the library strategy. For example: RNA-seq, scRNA-seq, CITE-seq, Spatial Transcriptomics, ChIP-Seq, CUT&amp;Tag, Bisulfite-seq, ATAC-seq, Hi-C, and so on..." sqref="B65" xr:uid="{3E1B337C-0FAB-46AD-AF75-6E2448C62637}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="Each sample title should be unique. _x000a_Use biol/tech rep numbers (when _x000a_applicable) to unique the titles. _x000a_For example:_x000a_Muscle, exercised, 60min, biol rep1_x000a_Muscle, exercised, 60min, biol rep2_x000a_" sqref="A43 B37:B58 B34:B35 C34:C58" xr:uid="{16FCC838-0E0E-48E4-B2AA-D96D65E76279}"/>
   </dataValidations>
@@ -15232,32 +15358,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="73" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -15354,80 +15480,80 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="80" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="75"/>
+      <c r="B19" s="80"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="78"/>
+      <c r="B20" s="74"/>
       <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="78"/>
+      <c r="B21" s="74"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -15515,7 +15641,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15527,7 +15653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B97CE2-DFAA-450B-948E-0D22EC57AEF0}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -22464,13 +22590,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uHeIq0fTY+SkfiG0BUBfkRWN7VsHdDGQfAJwovwYuwp6zuFwWIwuY7JnUgHrIwBV4G25XMH5B7S3rMfU5U3akw==" saltValue="Zz3TVxIHK82bnZabgvGk9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="T26:Y31">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:Y31">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:E69">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the drop down menu" sqref="I30:K32" xr:uid="{79D6ECAE-44AD-41AB-84C9-88F44BE0AE81}">

--- a/ncbi_submission/seq_template.xlsx
+++ b/ncbi_submission/seq_template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/zebrafish_mecp2_expression/ncbi_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/zebrafish_mecp2_expression/ncbi_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A23E28A-53E3-B442-9C04-042F6B90ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDDBF8A-C1D4-F248-9AFE-B988C75D1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qZzD4R9MHkY34uacjqt3UDyeD61BQpRgIo5GituA+M5TJZYrZGlKZCDSkAkMk0lzHa20F9kBcNHoSPrpZkW+dg==" workbookSaltValue="NTRFdVUfx51db2iwG+fWhA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="874" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -669,6 +669,86 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exact name of the file containing the processed data.  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For example:  Hela_H3K4me3.bw
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The same processed file may be listed for multiple Samples.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N33" authorId="0" shapeId="0" xr:uid="{BB69DC05-6D8F-4916-A5BE-28127FA5ED45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -680,23 +760,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="N33" authorId="0" shapeId="0" xr:uid="{BB69DC05-6D8F-4916-A5BE-28127FA5ED45}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Exact name of the file containing the processed data.  
-For example:  Hela_H3K4me3.bw
-The same processed file may be listed for multiple Samples.
-Multiple 'processed data file' columns may be included if multiple processed files exist for a Sample.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="O33" authorId="0" shapeId="0" xr:uid="{083C9E3F-A057-4B33-AB86-07AA1E985C0D}">
       <text>
         <r>
@@ -767,7 +830,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -781,7 +844,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -795,7 +858,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -804,7 +867,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -833,53 +896,426 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">A Sequence Read Archive-specific field that describes the sequencing technique for each library. 
-Please select one of the following terms:
-RNA-Seq
-scRNA-seq
-CITE-seq
-miRNA-Seq
-ncRNA-Seq
-ssRNA-seq
-RNA-Seq (CAGE)
-RNA-Seq (RACE)
-Spatial Transcriptomics
-ChIP-Seq
-CUT&amp;Tag
-MNase-Seq
-MBD-Seq
-MRE-Seq
-Bisulfite-Seq
-Bisulfite-Seq (reduced representation)
-MeDIP-Seq
-DNase-Hypersensitivity
-Tn-Seq
-FAIRE-seq
-SELEX
-RIP-Seq
-ATAC-seq
-ChIA-PET
-Hi-C
-OTHER: specify
 </t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Please select one of the following terms:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">scRNA-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CITE-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">miRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ncRNA-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ssRNA-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (CAGE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RNA-Seq (RACE)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Spatial Transcriptomics
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">CUT&amp;Tag
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MNase-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MBD-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MRE-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Bisulfite-Seq (reduced representation)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MeDIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">DNase-Hypersensitivity
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tn-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FAIRE-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SELEX
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RIP-Seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ATAC-seq
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ChIA-PET
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hi-C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OTHER: specify
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="A67" authorId="0" shapeId="0" xr:uid="{494BCB97-31DA-4563-A050-36DD8A467D3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Provide details of how processed data files were generated. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Steps may include:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Base-calling software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Data filtering steps;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Read alignment software, version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">etc.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A68" authorId="0" shapeId="0" xr:uid="{6BCE8D0B-7F45-475A-86B8-E2D963D86E30}">
       <text>
         <r>
           <rPr>
@@ -900,7 +1336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0" shapeId="0" xr:uid="{6BCE8D0B-7F45-475A-86B8-E2D963D86E30}">
+    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{28C77FE7-DBD7-4513-B8B9-86AC1FA288D3}">
       <text>
         <r>
           <rPr>
@@ -921,7 +1357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{28C77FE7-DBD7-4513-B8B9-86AC1FA288D3}">
+    <comment ref="A70" authorId="0" shapeId="0" xr:uid="{F9F4E26C-6F11-4EAE-88A3-FA44B452BC8F}">
       <text>
         <r>
           <rPr>
@@ -942,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A70" authorId="0" shapeId="0" xr:uid="{F9F4E26C-6F11-4EAE-88A3-FA44B452BC8F}">
+    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{A31986E9-6FBA-4F48-9CE5-C4A66D0C84EE}">
       <text>
         <r>
           <rPr>
@@ -963,34 +1399,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{A31986E9-6FBA-4F48-9CE5-C4A66D0C84EE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Provide details of how processed data files were generated. 
-Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc.
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A72" authorId="0" shapeId="0" xr:uid="{5011AF2A-BF87-4698-86BB-C6BE38C846CB}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -999,7 +1414,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1014,7 +1429,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -1028,7 +1443,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -5804,7 +6219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="692">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -8437,16 +8852,223 @@
     <t>Danio rerio</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>mecp2Q63X</t>
-  </si>
-  <si>
     <t>Embryo</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>4d-mecpM1_S123_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM2_S125_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM3_S126_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM4_S127_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM5_S128_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM6_S129_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM7_S130_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM8_S131_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM9_S132_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM10_S124_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW1_S133_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW2_S135_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW3_S136_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW4_S137_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW5_S138_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW6_S139_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW7_S140_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW8_S141_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW9_S142_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW10_S134_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM1_S123_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM2_S125_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM3_S126_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM4_S127_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM5_S128_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM6_S129_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM7_S130_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM8_S131_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM9_S132_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpM10_S124_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW1_S133_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW2_S135_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW3_S136_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW4_S137_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW5_S138_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW6_S139_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW7_S140_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW8_S141_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW9_S142_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4d-mecpW10_S134_L001_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Zebrafish RNA-seq sample</t>
+  </si>
+  <si>
+    <t>rsem_GENE_pvt.csv</t>
+  </si>
+  <si>
+    <t>40801092fbc3b8a8ee55d69c6282e841</t>
+  </si>
+  <si>
+    <t>CSV file of gene expression value (counts) by gene and sample.</t>
+  </si>
+  <si>
+    <t>GRCz11</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 1</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 2</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 3</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 4</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 5</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 6</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 7</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 8</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 9</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Mutant 10</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 1</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 2</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 3</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 4</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 5</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 6</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 7</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 8</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 9</t>
+  </si>
+  <si>
+    <t>S4D Zebrafish Transcriptome - Wild Type 10</t>
+  </si>
+  <si>
+    <t>mecp2 Q63X</t>
+  </si>
+  <si>
+    <t>mecp2 wild type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embryos derived from incrosses of mecp2-Q63X homozygous adults or wild-type adults were pooled in groups of three and processed for RNA extraction at 4 dpf as previously described in Yoon et al 2022. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cDNA libraries were prepared using the TruSeq stranded mRNA library preparation protocol with poly-A selection and sequenced on the Illumina HiSeq. 2500. 10 biological replicates of each genotype, confirmed from raw sequencing data alignments using the Integrative Genomics Viewer, were analyzed.  </t>
+  </si>
+  <si>
+    <t>RNA-seq</t>
+  </si>
+  <si>
+    <t>Bioinformatic analysis of transcriptomic data adhere to recommended ENCODE guidelines and best practices for RNA-Seq. Alignment of adapter-trimmed (Skewer v0.1.123) 2x150 (paired-end; PE) bp strand-specific Illumina reads to the Danio rerio GRCz11 genome (assembly accession GCF_000002035.6) was achieved with the Spliced Transcripts Alignment to a Reference (STAR v2.5.3a) software, a splice-junction aware aligner, using annotation modifications (v4.3.2) made by Lawson et al 2020. Expression estimation was performed with RSEM v1.3.0 (RNASeq by Expectation Maximization).</t>
   </si>
 </sst>
 </file>
@@ -9247,18 +9869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -9272,6 +9882,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -9305,7 +9927,27 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal 3" xfId="27" xr:uid="{F4D64B01-3AA2-4CE5-A7EE-64332280C940}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13608,25 +14250,29 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A29" sqref="A29"/>
+      <selection pane="topRight" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="23.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="8" customWidth="1"/>
     <col min="5" max="8" width="17.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="14" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="8" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="20" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.1640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="36" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="20" style="8" customWidth="1"/>
     <col min="20" max="16384" width="83.6640625" style="8"/>
   </cols>
   <sheetData>
@@ -14002,22 +14648,26 @@
       <c r="A34" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="B34" s="14"/>
+      <c r="B34" s="14" t="s">
+        <v>666</v>
+      </c>
       <c r="C34" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E34" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F34" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G34" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>10</v>
@@ -14028,32 +14678,44 @@
       <c r="K34" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="L34" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="O34" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="72" t="s">
         <v>600</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>667</v>
+      </c>
       <c r="C35" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E35" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F35" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G35" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>10</v>
@@ -14064,31 +14726,44 @@
       <c r="K35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="L35" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="72" t="s">
         <v>601</v>
       </c>
+      <c r="B36" s="14" t="s">
+        <v>668</v>
+      </c>
       <c r="C36" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E36" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F36" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G36" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>10</v>
@@ -14099,32 +14774,44 @@
       <c r="K36" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="L36" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="O36" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="14" t="s">
+        <v>669</v>
+      </c>
       <c r="C37" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E37" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F37" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G37" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>10</v>
@@ -14135,32 +14822,44 @@
       <c r="K37" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="L37" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="O37" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="14" t="s">
+        <v>670</v>
+      </c>
       <c r="C38" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E38" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F38" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G38" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>10</v>
@@ -14171,32 +14870,44 @@
       <c r="K38" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="L38" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="O38" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14" t="s">
+        <v>671</v>
+      </c>
       <c r="C39" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E39" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F39" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G39" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>10</v>
@@ -14207,32 +14918,44 @@
       <c r="K39" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
+      <c r="L39" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+      <c r="O39" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="72" t="s">
         <v>605</v>
       </c>
-      <c r="B40" s="14"/>
+      <c r="B40" s="14" t="s">
+        <v>672</v>
+      </c>
       <c r="C40" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E40" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F40" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G40" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>10</v>
@@ -14243,32 +14966,44 @@
       <c r="K40" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="L40" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="O40" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="72" t="s">
         <v>606</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>673</v>
+      </c>
       <c r="C41" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E41" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F41" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G41" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>10</v>
@@ -14279,32 +15014,44 @@
       <c r="K41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
+      <c r="L41" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="O41" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="72" t="s">
         <v>607</v>
       </c>
-      <c r="B42" s="14"/>
+      <c r="B42" s="14" t="s">
+        <v>674</v>
+      </c>
       <c r="C42" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E42" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F42" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G42" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>10</v>
@@ -14315,32 +15062,44 @@
       <c r="K42" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="L42" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="O42" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="72" t="s">
         <v>599</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14" t="s">
+        <v>675</v>
+      </c>
       <c r="C43" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E43" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F43" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G43" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>622</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>10</v>
@@ -14351,32 +15110,44 @@
       <c r="K43" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="L43" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="O43" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="72" t="s">
         <v>608</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="14" t="s">
+        <v>676</v>
+      </c>
       <c r="C44" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E44" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F44" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>10</v>
@@ -14387,32 +15158,44 @@
       <c r="K44" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
+      <c r="L44" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
+      <c r="O44" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="P44" s="14" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="72" t="s">
         <v>610</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="14" t="s">
+        <v>677</v>
+      </c>
       <c r="C45" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E45" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F45" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>10</v>
@@ -14423,32 +15206,44 @@
       <c r="K45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="L45" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
+      <c r="O45" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="72" t="s">
         <v>611</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="14" t="s">
+        <v>678</v>
+      </c>
       <c r="C46" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F46" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>10</v>
@@ -14459,32 +15254,44 @@
       <c r="K46" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="L46" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
+      <c r="O46" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="72" t="s">
         <v>612</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>679</v>
+      </c>
       <c r="C47" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E47" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F47" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>10</v>
@@ -14495,32 +15302,44 @@
       <c r="K47" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="L47" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
+      <c r="O47" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="72" t="s">
         <v>613</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="14" t="s">
+        <v>680</v>
+      </c>
       <c r="C48" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E48" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F48" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>10</v>
@@ -14531,32 +15350,44 @@
       <c r="K48" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
+      <c r="L48" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
+      <c r="O48" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="72" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="14" t="s">
+        <v>681</v>
+      </c>
       <c r="C49" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E49" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F49" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>10</v>
@@ -14567,32 +15398,44 @@
       <c r="K49" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
+      <c r="L49" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
+      <c r="O49" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="72" t="s">
         <v>615</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="14" t="s">
+        <v>682</v>
+      </c>
       <c r="C50" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E50" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F50" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>10</v>
@@ -14603,32 +15446,44 @@
       <c r="K50" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
+      <c r="L50" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
+      <c r="O50" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="72" t="s">
         <v>616</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14" t="s">
+        <v>683</v>
+      </c>
       <c r="C51" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E51" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F51" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>10</v>
@@ -14639,32 +15494,44 @@
       <c r="K51" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
+      <c r="L51" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
+      <c r="O51" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="72" t="s">
         <v>617</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="14" t="s">
+        <v>684</v>
+      </c>
       <c r="C52" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E52" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F52" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>10</v>
@@ -14675,32 +15542,44 @@
       <c r="K52" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
+      <c r="L52" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
+      <c r="O52" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="72" t="s">
         <v>609</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="14" t="s">
+        <v>685</v>
+      </c>
       <c r="C53" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="E53" s="14"/>
+        <v>619</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>686</v>
+      </c>
       <c r="F53" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>10</v>
@@ -14711,11 +15590,19 @@
       <c r="K53" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
+      <c r="L53" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>662</v>
+      </c>
       <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
+      <c r="O53" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B54" s="14"/>
@@ -14892,11 +15779,13 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="B63" s="14"/>
+      <c r="B63" s="43" t="s">
+        <v>688</v>
+      </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -14913,11 +15802,13 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="70" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="43" t="s">
+        <v>689</v>
+      </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -14938,7 +15829,9 @@
       <c r="A65" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="14" t="s">
+        <v>690</v>
+      </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -14974,11 +15867,13 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="B67" s="14"/>
+      <c r="B67" s="43" t="s">
+        <v>691</v>
+      </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -15083,7 +15978,9 @@
       <c r="A72" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="B72" s="14"/>
+      <c r="B72" s="14" t="s">
+        <v>665</v>
+      </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
@@ -15104,7 +16001,9 @@
       <c r="A73" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="14"/>
+      <c r="B73" s="14" t="s">
+        <v>664</v>
+      </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -15270,26 +16169,189 @@
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <phoneticPr fontId="34" type="noConversion"/>
-  <conditionalFormatting sqref="B57:C58 B34:B35 B37:B56">
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
+  <conditionalFormatting sqref="A34:A53 A55:A58">
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101:XFD1048576 C81:XFD100">
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:C58 B34:B56">
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C26">
+    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:C74">
+    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57:XFD58 O34:XFD56">
-    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C74">
-    <cfRule type="duplicateValues" dxfId="6" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C26">
-    <cfRule type="duplicateValues" dxfId="5" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A58 A34:A53">
-    <cfRule type="duplicateValues" dxfId="4" priority="29"/>
+  <conditionalFormatting sqref="A81:B100">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations xWindow="367" yWindow="405" count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="One contributer per row, e.g." prompt="Jane, Doe_x000a_Yixin, Wang_x000a_John, H, Smith_x000a_Charles,E,Determan Jr_x000a_Monique,G,van der Wijst_x000a_Mark, Anderson Dumont_x000a_(insert additional rows as needed)_x000a_" sqref="B14:C17" xr:uid="{E3B18FF0-8187-4483-A85F-019FF99D71B4}"/>
@@ -15313,12 +16375,12 @@
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="Identify the organism(s) from which the sequences were derived.  For example:_x000a_Homo sapiens_x000a_Mus musculus_x000a_Arabidopsis thaliana_x000a_Escherichia coli K-12_x000a_Caenorhabditis elegans" sqref="D57:D58 C34:C56" xr:uid="{A870C9A2-F05A-485A-9E21-08C3F86683B5}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the tissue from which this sample was derived. For example:_x000a_Liver_x000a_Breast cancer_x000a_Colorectal cancer_x000a_Liver tumor_x000a_Whole organism_x000a_Mycelium" sqref="E57:E58 D34:D56" xr:uid="{F363101B-E3EB-4921-89A5-DE79B20B09EF}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the cell line used, if applicable. For example:_x000a_HeLa_x000a_HEK293_x000a_A549" sqref="F57:F58 E34:E56" xr:uid="{22185DB1-F1B6-4642-9A12-2889E7D560EC}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the cell line used, if applicable. For example:_x000a_HeLa_x000a_HEK293_x000a_A549" sqref="F57:F58 E54:E56" xr:uid="{22185DB1-F1B6-4642-9A12-2889E7D560EC}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the cell type. Examples include:_x000a_PBMCs_x000a_Adipocytes_x000a_neural progenitor cells (NPCs)_x000a_" sqref="G57:G58 F34:F56" xr:uid="{AD947475-09CC-48B9-8265-B9811301F615}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the genotype (if applicable). If not applicable change &quot;genotype&quot; to something else. For example: strain, sex, cultivar, breed, age, developmental stage, etc" sqref="H57:H58 G34:G56" xr:uid="{E4E9BB68-E9AC-40EB-9161-0960CBF212EC}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the genotype (if applicable). If not applicable change &quot;genotype&quot; to something else. For example: strain, sex, cultivar, breed, age, developmental stage, etc" sqref="H57:H58 E34:E53 G34:G56" xr:uid="{E4E9BB68-E9AC-40EB-9161-0960CBF212EC}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="Treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="I57:I58 H54:H56" xr:uid="{47B6B633-8A68-4530-9AD8-BD49CE875996}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the library strategy. For example: RNA-seq, scRNA-seq, CITE-seq, Spatial Transcriptomics, ChIP-Seq, CUT&amp;Tag, Bisulfite-seq, ATAC-seq, Hi-C, and so on..." sqref="B65" xr:uid="{3E1B337C-0FAB-46AD-AF75-6E2448C62637}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Each sample title should be unique. _x000a_Use biol/tech rep numbers (when _x000a_applicable) to unique the titles. _x000a_For example:_x000a_Muscle, exercised, 60min, biol rep1_x000a_Muscle, exercised, 60min, biol rep2_x000a_" sqref="A43 B37:B58 B34:B35 C34:C58" xr:uid="{16FCC838-0E0E-48E4-B2AA-D96D65E76279}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Each sample title should be unique. _x000a_Use biol/tech rep numbers (when _x000a_applicable) to unique the titles. _x000a_For example:_x000a_Muscle, exercised, 60min, biol rep1_x000a_Muscle, exercised, 60min, biol rep2_x000a_" sqref="A43:B43 B34:B42 C34:C58 B44:B58" xr:uid="{16FCC838-0E0E-48E4-B2AA-D96D65E76279}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15346,7 +16408,7 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -15358,32 +16420,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="80" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -15480,80 +16542,80 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="76" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="76"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="79" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="79"/>
       <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="79"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -15579,18 +16641,19 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B4" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="8" customWidth="1"/>
     <col min="3" max="5" width="9.1640625" style="8"/>
     <col min="6" max="6" width="28.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
@@ -15639,9 +16702,218 @@
         <v>246</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:G1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A49:G1048576 B9:G48">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A48">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15653,7 +16925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B97CE2-DFAA-450B-948E-0D22EC57AEF0}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -22589,14 +23861,14 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uHeIq0fTY+SkfiG0BUBfkRWN7VsHdDGQfAJwovwYuwp6zuFwWIwuY7JnUgHrIwBV4G25XMH5B7S3rMfU5U3akw==" saltValue="Zz3TVxIHK82bnZabgvGk9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <conditionalFormatting sqref="A61:E69">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:Y31">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="T26:Y31">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:Y31">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:E69">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the drop down menu" sqref="I30:K32" xr:uid="{79D6ECAE-44AD-41AB-84C9-88F44BE0AE81}">

--- a/ncbi_submission/seq_template.xlsx
+++ b/ncbi_submission/seq_template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/zebrafish_mecp2_expression/ncbi_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\zebrafish_mecp2_expression\ncbi_submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDDBF8A-C1D4-F248-9AFE-B988C75D1549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C132ECB2-978D-48FB-BA2D-89C8BA8F7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qZzD4R9MHkY34uacjqt3UDyeD61BQpRgIo5GituA+M5TJZYrZGlKZCDSkAkMk0lzHa20F9kBcNHoSPrpZkW+dg==" workbookSaltValue="NTRFdVUfx51db2iwG+fWhA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -6219,7 +6219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="740">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -9069,6 +9069,150 @@
   </si>
   <si>
     <t>Bioinformatic analysis of transcriptomic data adhere to recommended ENCODE guidelines and best practices for RNA-Seq. Alignment of adapter-trimmed (Skewer v0.1.123) 2x150 (paired-end; PE) bp strand-specific Illumina reads to the Danio rerio GRCz11 genome (assembly accession GCF_000002035.6) was achieved with the Spliced Transcripts Alignment to a Reference (STAR v2.5.3a) software, a splice-junction aware aligner, using annotation modifications (v4.3.2) made by Lawson et al 2020. Expression estimation was performed with RSEM v1.3.0 (RNASeq by Expectation Maximization).</t>
+  </si>
+  <si>
+    <t>641d3179d39f1f12b6f809e2dfe9fa23</t>
+  </si>
+  <si>
+    <t>7b681ba0041efa17a746cea6ef398775</t>
+  </si>
+  <si>
+    <t>aedab58311c44ca36e55826fe1b62926</t>
+  </si>
+  <si>
+    <t>8a29dc1c260cedba911bee6863013989</t>
+  </si>
+  <si>
+    <t>d4eba18ede2d753a84a86fd5bea16f9d</t>
+  </si>
+  <si>
+    <t>b28547173e70da9d3e7371be1a5cdbe1</t>
+  </si>
+  <si>
+    <t>023f251facd44b6e01a37cd68f799e4b</t>
+  </si>
+  <si>
+    <t>5992944d70a96ca084811a5236ad1cf3</t>
+  </si>
+  <si>
+    <t>4225ebc334bf6578e77ab5091d0d8051</t>
+  </si>
+  <si>
+    <t>15b85dbc9b592da8659091ff34990ae3</t>
+  </si>
+  <si>
+    <t>fb248071b204fd73cf4c0457acdd0e48</t>
+  </si>
+  <si>
+    <t>cf5c78eaa235c12986c1be93b317a76c</t>
+  </si>
+  <si>
+    <t>47e543b7a5da114692129950a7fe6448</t>
+  </si>
+  <si>
+    <t>4ce1458e42a9b655a600b9afcb9b7a6c</t>
+  </si>
+  <si>
+    <t>ffc02289c26f136df7bea0da1b39ad1c</t>
+  </si>
+  <si>
+    <t>1119f897ab8e49d99a3c756eb6023ab5</t>
+  </si>
+  <si>
+    <t>641740c8b235bea6b948f0a47adcc153</t>
+  </si>
+  <si>
+    <t>b5909fd164ddd6da2b011b65187ec3b8</t>
+  </si>
+  <si>
+    <t>37a227fa9c4bc825fcc0542c3a57fca1</t>
+  </si>
+  <si>
+    <t>49d5b8150179783cd31efad67922adce</t>
+  </si>
+  <si>
+    <t>16697224a0373efa5faa6e6a10f1b8f7</t>
+  </si>
+  <si>
+    <t>a97bc9eaf87396e66c6c070d8f5e1630</t>
+  </si>
+  <si>
+    <t>13e38816c4c1a9e265b536a0d3e7c966</t>
+  </si>
+  <si>
+    <t>a5f3afaecf678a841378f4bf7afa40d6</t>
+  </si>
+  <si>
+    <t>816ba1b55afe3a5e294e2a2c6ccf50b3</t>
+  </si>
+  <si>
+    <t>a92641fb12b1fbbb4a4916fdd9e36b4d</t>
+  </si>
+  <si>
+    <t>7dac436a31fd90824450eae9de31db71</t>
+  </si>
+  <si>
+    <t>99f2f5705cdc39c17811e9639fd7f9df</t>
+  </si>
+  <si>
+    <t>34412df10a442620c0e064b7d7fe0f0d</t>
+  </si>
+  <si>
+    <t>37f29f8666122fb0449d3880a927b105</t>
+  </si>
+  <si>
+    <t>d3ef126eff9352dbeb5cd511cae652e1</t>
+  </si>
+  <si>
+    <t>24c809b5870abc84c8f3d3ef5d3d126b</t>
+  </si>
+  <si>
+    <t>34caea4e4f87512dfe7c18c87628a5bb</t>
+  </si>
+  <si>
+    <t>931778dba1f39781f516b5dcb82f93f8</t>
+  </si>
+  <si>
+    <t>97e4ff7473758ac872cf0ef81686e3ce</t>
+  </si>
+  <si>
+    <t>091786f99679584ce77bf9fe830b57ae</t>
+  </si>
+  <si>
+    <t>6657ca4b3a2eb99b0820ea59de76f803</t>
+  </si>
+  <si>
+    <t>554d61eccc42f121358a6fe45cdf78e0</t>
+  </si>
+  <si>
+    <t>ab93668161e265d04112dc5a8c5f9207</t>
+  </si>
+  <si>
+    <t>df3242e7e23b64395abc8dbee7e23080</t>
+  </si>
+  <si>
+    <t>Rett Syndrome (RTT), a human neurodevelopmental disorder characterized by severe cognitive and motor impairments, is caused by dysfunction of the conserved transcriptional regulator Methyl-CpG-binding protein 2 (MECP2). Genetic analyses in mouse Mecp2 mutants, which exhibit key features of human RTT, have been essential for deciphering the mechanisms of MeCP2 function; nonetheless, our understanding of these complex mechanisms is incomplete. Zebrafish mecp2 mutants exhibit mild behavioral deficits but have not been analyzed in depth. Here we combine transcriptomic and behavioral assays to assess baseline and stimulus-evoked motor responses and sensory filtering in zebrafish mecp2 mutants from 5-7 days post-fertilization (dpf). We show that zebrafish mecp2 function is dispensable for gross movement, acoustic startle response, and sensory filtering (habituation and sensorimotor gating), and reveal a previously unknown role for mecp2 in behavioral responses to visual stimuli. RNA-seq analysis identified a large gene set that requires mecp2 function for correct transcription at 4 dpf, and pathway analysis revealed several pathways that require MeCP2 function in both zebrafish and mammals. These findings show that MeCP2’s function as a transcriptional regulator is conserved across vertebrates and supports using zebrafish to complement mouse modeling in elucidating these conserved mechanisms.</t>
+  </si>
+  <si>
+    <t>Behavioral and transcriptomic analyses of mecp2 function in zebrafish</t>
+  </si>
+  <si>
+    <t>Nicholas J. Santistevan</t>
+  </si>
+  <si>
+    <t>Colby T. Ford</t>
+  </si>
+  <si>
+    <t>Cole S. Gilsdorf</t>
+  </si>
+  <si>
+    <t>Yevgenya Grinblat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To investigate the role of </t>
+  </si>
+  <si>
+    <t>To investigate the role of MeCP2 as a transcriptional regulator in zebrafish, we performed differential gene expression analyses on 10 mutant and 10 wild type samples and highlighting the effects of the Q63X mutation in MECP2 in various molecular pathways.</t>
   </si>
 </sst>
 </file>
@@ -9869,6 +10013,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -9882,18 +10038,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -14252,46 +14396,46 @@
   </sheetPr>
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A29" sqref="A29"/>
-      <selection pane="topRight" activeCell="J35" sqref="J35"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="67.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="8" customWidth="1"/>
-    <col min="5" max="8" width="17.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="85.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="8" customWidth="1"/>
+    <col min="5" max="8" width="17.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="14" style="8" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="23.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="36" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="20" style="8" customWidth="1"/>
-    <col min="20" max="16384" width="83.6640625" style="8"/>
+    <col min="20" max="16384" width="83.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>367</v>
       </c>
@@ -14301,7 +14445,7 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
     </row>
-    <row r="5" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -14309,7 +14453,7 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
     </row>
-    <row r="6" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -14317,7 +14461,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
     </row>
-    <row r="8" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -14338,7 +14482,7 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
@@ -14359,7 +14503,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
@@ -14378,72 +14522,98 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="42" t="s">
+        <v>733</v>
+      </c>
       <c r="C11" s="51"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>236</v>
       </c>
+      <c r="B16" s="8" t="s">
+        <v>736</v>
+      </c>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>236</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>737</v>
+      </c>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -14462,7 +14632,7 @@
       <c r="P26" s="30"/>
       <c r="Q26" s="30"/>
     </row>
-    <row r="27" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -14483,7 +14653,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="25"/>
     </row>
-    <row r="28" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
@@ -14504,7 +14674,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>251</v>
       </c>
@@ -14525,7 +14695,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>252</v>
       </c>
@@ -14546,7 +14716,7 @@
       <c r="P30" s="52"/>
       <c r="Q30" s="53"/>
     </row>
-    <row r="31" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>253</v>
       </c>
@@ -14567,7 +14737,7 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="53"/>
     </row>
-    <row r="32" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="60" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
         <v>581</v>
       </c>
@@ -14588,7 +14758,7 @@
       <c r="P32" s="58"/>
       <c r="Q32" s="59"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>351</v>
       </c>
@@ -14644,7 +14814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="72" t="s">
         <v>598</v>
       </c>
@@ -14692,7 +14862,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="72" t="s">
         <v>600</v>
       </c>
@@ -14740,7 +14910,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="72" t="s">
         <v>601</v>
       </c>
@@ -14788,7 +14958,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="72" t="s">
         <v>602</v>
       </c>
@@ -14836,7 +15006,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="72" t="s">
         <v>603</v>
       </c>
@@ -14884,7 +15054,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="72" t="s">
         <v>604</v>
       </c>
@@ -14932,7 +15102,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="72" t="s">
         <v>605</v>
       </c>
@@ -14980,7 +15150,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="72" t="s">
         <v>606</v>
       </c>
@@ -15028,7 +15198,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="72" t="s">
         <v>607</v>
       </c>
@@ -15076,7 +15246,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="72" t="s">
         <v>599</v>
       </c>
@@ -15124,7 +15294,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="72" t="s">
         <v>608</v>
       </c>
@@ -15172,7 +15342,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="72" t="s">
         <v>610</v>
       </c>
@@ -15220,7 +15390,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="72" t="s">
         <v>611</v>
       </c>
@@ -15268,7 +15438,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="72" t="s">
         <v>612</v>
       </c>
@@ -15316,7 +15486,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="72" t="s">
         <v>613</v>
       </c>
@@ -15364,7 +15534,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="72" t="s">
         <v>614</v>
       </c>
@@ -15412,7 +15582,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="72" t="s">
         <v>615</v>
       </c>
@@ -15460,7 +15630,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="72" t="s">
         <v>616</v>
       </c>
@@ -15508,7 +15678,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="72" t="s">
         <v>617</v>
       </c>
@@ -15556,7 +15726,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="72" t="s">
         <v>609</v>
       </c>
@@ -15604,7 +15774,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -15621,7 +15791,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -15639,7 +15809,7 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="37"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -15657,7 +15827,7 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -15676,7 +15846,7 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -15695,7 +15865,7 @@
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>27</v>
       </c>
@@ -15716,7 +15886,7 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="25"/>
     </row>
-    <row r="60" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>588</v>
       </c>
@@ -15737,7 +15907,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>360</v>
       </c>
@@ -15758,7 +15928,7 @@
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>361</v>
       </c>
@@ -15779,7 +15949,7 @@
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="1:17" ht="56" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>362</v>
       </c>
@@ -15802,7 +15972,7 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:17" ht="70" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>363</v>
       </c>
@@ -15825,7 +15995,7 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>368</v>
       </c>
@@ -15848,7 +16018,7 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -15867,7 +16037,7 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>364</v>
       </c>
@@ -15890,7 +16060,7 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>565</v>
       </c>
@@ -15911,7 +16081,7 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>565</v>
       </c>
@@ -15932,7 +16102,7 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>565</v>
       </c>
@@ -15953,7 +16123,7 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>565</v>
       </c>
@@ -15974,7 +16144,7 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>365</v>
       </c>
@@ -15997,7 +16167,7 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>366</v>
       </c>
@@ -16020,7 +16190,7 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>582</v>
       </c>
@@ -16041,7 +16211,7 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -16060,7 +16230,7 @@
       <c r="P75" s="27"/>
       <c r="Q75" s="27"/>
     </row>
-    <row r="76" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>5</v>
       </c>
@@ -16081,7 +16251,7 @@
       <c r="P76" s="24"/>
       <c r="Q76" s="25"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>31</v>
       </c>
@@ -16102,7 +16272,7 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="11"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>254</v>
       </c>
@@ -16123,7 +16293,7 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="11"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>32</v>
       </c>
@@ -16144,7 +16314,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="11"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>6</v>
       </c>
@@ -16169,7 +16339,7 @@
       <c r="R80" s="56"/>
       <c r="S80" s="56"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>621</v>
       </c>
@@ -16177,7 +16347,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>622</v>
       </c>
@@ -16185,7 +16355,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>623</v>
       </c>
@@ -16193,7 +16363,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>624</v>
       </c>
@@ -16201,7 +16371,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>625</v>
       </c>
@@ -16209,7 +16379,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>626</v>
       </c>
@@ -16217,7 +16387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>627</v>
       </c>
@@ -16225,7 +16395,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>628</v>
       </c>
@@ -16233,7 +16403,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>629</v>
       </c>
@@ -16241,7 +16411,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>630</v>
       </c>
@@ -16249,7 +16419,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>631</v>
       </c>
@@ -16257,7 +16427,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>632</v>
       </c>
@@ -16265,7 +16435,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>633</v>
       </c>
@@ -16273,7 +16443,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>634</v>
       </c>
@@ -16281,7 +16451,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>635</v>
       </c>
@@ -16289,7 +16459,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>636</v>
       </c>
@@ -16297,7 +16467,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>637</v>
       </c>
@@ -16305,7 +16475,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>638</v>
       </c>
@@ -16313,7 +16483,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>639</v>
       </c>
@@ -16321,7 +16491,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>640</v>
       </c>
@@ -16335,23 +16505,23 @@
   <conditionalFormatting sqref="A34:A53 A55:A58">
     <cfRule type="duplicateValues" dxfId="11" priority="30"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A81:B100">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A101:XFD1048576 C81:XFD100">
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C58 B34:B56">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C26">
-    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C74">
-    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57:XFD58 O34:XFD56">
-    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:B100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="19"/>
   </conditionalFormatting>
   <dataValidations xWindow="367" yWindow="405" count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="One contributer per row, e.g." prompt="Jane, Doe_x000a_Yixin, Wang_x000a_John, H, Smith_x000a_Charles,E,Determan Jr_x000a_Monique,G,van der Wijst_x000a_Mark, Anderson Dumont_x000a_(insert additional rows as needed)_x000a_" sqref="B14:C17" xr:uid="{E3B18FF0-8187-4483-A85F-019FF99D71B4}"/>
@@ -16366,7 +16536,7 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="List the name of any processed data files (one per row) that were derived from multiple samples. For instance, bulkRNA-seq tables that include library names as headers, or &quot;merged&quot; peak files." sqref="B18:C18" xr:uid="{38E8CDD9-437B-46E7-BC82-569009D0AD05}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="H34:H53" xr:uid="{DD3BF453-67A7-457F-8A50-2AA2F9C643F5}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C65 B18" xr:uid="{1DA8B795-5C89-4577-8836-DB7AEFB725B7}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C65" xr:uid="{1DA8B795-5C89-4577-8836-DB7AEFB725B7}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the drop down menu" sqref="J57:J58 I34:I56" xr:uid="{4B61C4DA-D826-4533-9531-93FAAFEF6886}">
       <formula1>"polyA RNA,total RNA, nuclear RNA, cytoplasmic RNA, genomic DNA,protein,other"</formula1>
     </dataValidation>
@@ -16412,42 +16582,42 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="162.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="162.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="80"/>
-    </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="81" t="s">
+      <c r="B2" s="75"/>
+    </row>
+    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="81"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="76"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="78"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-    </row>
-    <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="73"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -16455,7 +16625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>269</v>
       </c>
@@ -16463,7 +16633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>268</v>
       </c>
@@ -16471,7 +16641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>590</v>
       </c>
@@ -16479,7 +16649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>597</v>
       </c>
@@ -16487,13 +16657,13 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>564</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>593</v>
       </c>
@@ -16501,7 +16671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>586</v>
       </c>
@@ -16509,7 +16679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
         <v>587</v>
       </c>
@@ -16517,7 +16687,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>270</v>
       </c>
@@ -16529,7 +16699,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>560</v>
       </c>
@@ -16541,81 +16711,81 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
+    <row r="17" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="75"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
+    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="76"/>
-    </row>
-    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="B19" s="80"/>
+    </row>
+    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="79"/>
+      <c r="B20" s="74"/>
       <c r="F20" s="63"/>
     </row>
-    <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="79"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
+      <c r="B21" s="74"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -16643,44 +16813,44 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A25" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="8" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="8"/>
-    <col min="6" max="6" width="28.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="42.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="8" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="28.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>244</v>
       </c>
@@ -16688,7 +16858,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>245</v>
       </c>
@@ -16702,10 +16872,13 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>621</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>694</v>
+      </c>
       <c r="F9" s="8" t="s">
         <v>662</v>
       </c>
@@ -16713,207 +16886,324 @@
         <v>663</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>659</v>
       </c>
+      <c r="B48" s="8" t="s">
+        <v>731</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A9:A48">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A49:G1048576 B9:G48">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A48">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16925,35 +17215,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B97CE2-DFAA-450B-948E-0D22EC57AEF0}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="8" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
     <col min="9" max="9" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="25" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="83.6640625" style="8"/>
+    <col min="19" max="16384" width="83.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -16973,7 +17263,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -16993,7 +17283,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -17012,7 +17302,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>348</v>
       </c>
@@ -17020,7 +17310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="246" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>349</v>
       </c>
@@ -17028,7 +17318,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>350</v>
       </c>
@@ -17036,7 +17326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -17044,7 +17334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
@@ -17052,7 +17342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>236</v>
       </c>
@@ -17060,7 +17350,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>236</v>
       </c>
@@ -17069,7 +17359,7 @@
       </c>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>248</v>
       </c>
@@ -17077,39 +17367,39 @@
         <v>446</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="42"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="42"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="42"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -17126,7 +17416,7 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
     </row>
-    <row r="24" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
@@ -17145,7 +17435,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -17164,7 +17454,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>251</v>
       </c>
@@ -17184,7 +17474,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>252</v>
       </c>
@@ -17204,7 +17494,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>253</v>
       </c>
@@ -17224,7 +17514,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>351</v>
       </c>
@@ -17280,7 +17570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>34</v>
       </c>
@@ -17327,7 +17617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>35</v>
       </c>
@@ -17374,7 +17664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
@@ -17421,7 +17711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>37</v>
       </c>
@@ -17468,7 +17758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>38</v>
       </c>
@@ -17515,7 +17805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>39</v>
       </c>
@@ -17562,7 +17852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>69</v>
       </c>
@@ -17609,7 +17899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>73</v>
       </c>
@@ -17656,7 +17946,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -17674,7 +17964,7 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -17691,7 +17981,7 @@
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
     </row>
-    <row r="40" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>27</v>
       </c>
@@ -17711,7 +18001,7 @@
       <c r="O40" s="24"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>588</v>
       </c>
@@ -17731,7 +18021,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>249</v>
       </c>
@@ -17753,7 +18043,7 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>250</v>
       </c>
@@ -17775,7 +18065,7 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>250</v>
       </c>
@@ -17797,7 +18087,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>362</v>
       </c>
@@ -17819,7 +18109,7 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>363</v>
       </c>
@@ -17841,7 +18131,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>368</v>
       </c>
@@ -17863,7 +18153,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -17880,7 +18170,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>364</v>
       </c>
@@ -17902,7 +18192,7 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>364</v>
       </c>
@@ -17924,7 +18214,7 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>364</v>
       </c>
@@ -17946,7 +18236,7 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>364</v>
       </c>
@@ -17968,7 +18258,7 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>364</v>
       </c>
@@ -17988,7 +18278,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>365</v>
       </c>
@@ -18010,7 +18300,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>366</v>
       </c>
@@ -18031,7 +18321,7 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>366</v>
       </c>
@@ -18053,7 +18343,7 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
@@ -18071,7 +18361,7 @@
       <c r="O57" s="27"/>
       <c r="P57" s="27"/>
     </row>
-    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>5</v>
       </c>
@@ -18091,7 +18381,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>31</v>
       </c>
@@ -18111,7 +18401,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="11"/>
     </row>
-    <row r="60" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>254</v>
       </c>
@@ -18131,7 +18421,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="11"/>
     </row>
-    <row r="61" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>32</v>
       </c>
@@ -18151,7 +18441,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>6</v>
       </c>
@@ -18173,7 +18463,7 @@
       <c r="O62" s="36"/>
       <c r="P62" s="36"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>51</v>
       </c>
@@ -18181,7 +18471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>55</v>
       </c>
@@ -18189,7 +18479,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>58</v>
       </c>
@@ -18197,7 +18487,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>61</v>
       </c>
@@ -18205,7 +18495,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>64</v>
       </c>
@@ -18213,7 +18503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>67</v>
       </c>
@@ -18221,7 +18511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>71</v>
       </c>
@@ -18229,7 +18519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>75</v>
       </c>
@@ -18260,35 +18550,35 @@
       <selection activeCell="A38" sqref="A38:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="28" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="60.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="60.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="25" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="83.6640625" style="8"/>
+    <col min="19" max="16384" width="83.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
     </row>
-    <row r="3" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -18308,7 +18598,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -18328,7 +18618,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -18347,7 +18637,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>348</v>
       </c>
@@ -18355,7 +18645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>349</v>
       </c>
@@ -18363,7 +18653,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>350</v>
       </c>
@@ -18371,7 +18661,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -18379,7 +18669,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>236</v>
       </c>
@@ -18387,7 +18677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>236</v>
       </c>
@@ -18396,7 +18686,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>236</v>
       </c>
@@ -18404,7 +18694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>236</v>
       </c>
@@ -18412,39 +18702,39 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -18462,7 +18752,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>0</v>
       </c>
@@ -18482,7 +18772,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>28</v>
       </c>
@@ -18502,7 +18792,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>251</v>
       </c>
@@ -18522,7 +18812,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>252</v>
       </c>
@@ -18542,7 +18832,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>253</v>
       </c>
@@ -18562,7 +18852,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>351</v>
       </c>
@@ -18612,7 +18902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>104</v>
       </c>
@@ -18653,7 +18943,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>114</v>
       </c>
@@ -18694,7 +18984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>120</v>
       </c>
@@ -18735,7 +19025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>126</v>
       </c>
@@ -18776,7 +19066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>132</v>
       </c>
@@ -18814,8 +19104,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -18833,7 +19123,7 @@
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
     </row>
-    <row r="38" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>27</v>
       </c>
@@ -18853,7 +19143,7 @@
       <c r="O38" s="24"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>588</v>
       </c>
@@ -18873,7 +19163,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>249</v>
       </c>
@@ -18895,7 +19185,7 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>250</v>
       </c>
@@ -18915,7 +19205,7 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>362</v>
       </c>
@@ -18937,7 +19227,7 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>363</v>
       </c>
@@ -18959,7 +19249,7 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>368</v>
       </c>
@@ -18981,7 +19271,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -18999,7 +19289,7 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>364</v>
       </c>
@@ -19021,7 +19311,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>364</v>
       </c>
@@ -19043,7 +19333,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>364</v>
       </c>
@@ -19065,7 +19355,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>364</v>
       </c>
@@ -19087,7 +19377,7 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>364</v>
       </c>
@@ -19109,7 +19399,7 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>364</v>
       </c>
@@ -19131,7 +19421,7 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>365</v>
       </c>
@@ -19153,7 +19443,7 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>366</v>
       </c>
@@ -19175,7 +19465,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
@@ -19193,7 +19483,7 @@
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
     </row>
-    <row r="55" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>5</v>
       </c>
@@ -19213,7 +19503,7 @@
       <c r="O55" s="24"/>
       <c r="P55" s="25"/>
     </row>
-    <row r="56" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>31</v>
       </c>
@@ -19233,7 +19523,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="11"/>
     </row>
-    <row r="57" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>254</v>
       </c>
@@ -19253,7 +19543,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>32</v>
       </c>
@@ -19273,7 +19563,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="11"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>6</v>
       </c>
@@ -19318,40 +19608,40 @@
       <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="43.5" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="43.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="8"/>
-    <col min="2" max="2" width="65.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="45.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="45.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="45.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="45.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="43.5" style="8"/>
+    <col min="1" max="1" width="43.42578125" style="8"/>
+    <col min="2" max="2" width="65.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="45.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="45.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="45.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="45.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="43.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
     </row>
-    <row r="3" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -19370,7 +19660,7 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -19389,7 +19679,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -19407,7 +19697,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>348</v>
       </c>
@@ -19415,7 +19705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>349</v>
       </c>
@@ -19423,7 +19713,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>350</v>
       </c>
@@ -19431,7 +19721,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -19439,7 +19729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>236</v>
       </c>
@@ -19447,33 +19737,33 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -19490,7 +19780,7 @@
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -19509,7 +19799,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="25"/>
     </row>
-    <row r="21" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -19528,7 +19818,7 @@
       <c r="N21" s="10"/>
       <c r="O21" s="11"/>
     </row>
-    <row r="22" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>251</v>
       </c>
@@ -19547,7 +19837,7 @@
       <c r="N22" s="10"/>
       <c r="O22" s="11"/>
     </row>
-    <row r="23" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>252</v>
       </c>
@@ -19567,7 +19857,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>253</v>
       </c>
@@ -19587,7 +19877,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>351</v>
       </c>
@@ -19667,7 +19957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
@@ -19747,7 +20037,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>35</v>
       </c>
@@ -19827,7 +20117,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>36</v>
       </c>
@@ -19907,7 +20197,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>37</v>
       </c>
@@ -19987,7 +20277,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -20004,7 +20294,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -20021,7 +20311,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
@@ -20040,7 +20330,7 @@
       <c r="N32" s="24"/>
       <c r="O32" s="25"/>
     </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>588</v>
       </c>
@@ -20059,7 +20349,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="11"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>249</v>
       </c>
@@ -20077,7 +20367,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>250</v>
       </c>
@@ -20095,7 +20385,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>250</v>
       </c>
@@ -20113,7 +20403,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>362</v>
       </c>
@@ -20134,7 +20424,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>363</v>
       </c>
@@ -20155,7 +20445,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>368</v>
       </c>
@@ -20176,7 +20466,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -20193,7 +20483,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>364</v>
       </c>
@@ -20214,7 +20504,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>364</v>
       </c>
@@ -20232,7 +20522,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>364</v>
       </c>
@@ -20250,7 +20540,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>364</v>
       </c>
@@ -20268,7 +20558,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>364</v>
       </c>
@@ -20286,7 +20576,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>365</v>
       </c>
@@ -20307,7 +20597,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>366</v>
       </c>
@@ -20328,7 +20618,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="41"/>
       <c r="C48" s="14"/>
@@ -20345,7 +20635,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -20362,7 +20652,7 @@
       <c r="N49" s="27"/>
       <c r="O49" s="27"/>
     </row>
-    <row r="50" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
@@ -20381,7 +20671,7 @@
       <c r="N50" s="24"/>
       <c r="O50" s="25"/>
     </row>
-    <row r="51" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>31</v>
       </c>
@@ -20400,7 +20690,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="11"/>
     </row>
-    <row r="52" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>254</v>
       </c>
@@ -20419,7 +20709,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="11"/>
     </row>
-    <row r="53" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>32</v>
       </c>
@@ -20438,7 +20728,7 @@
       <c r="N53" s="10"/>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>6</v>
       </c>
@@ -20461,7 +20751,7 @@
       <c r="N54" s="36"/>
       <c r="O54" s="36"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>161</v>
       </c>
@@ -20472,7 +20762,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>164</v>
       </c>
@@ -20483,7 +20773,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>167</v>
       </c>
@@ -20494,7 +20784,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>170</v>
       </c>
@@ -20505,7 +20795,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>177</v>
       </c>
@@ -20516,7 +20806,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>180</v>
       </c>
@@ -20527,7 +20817,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>183</v>
       </c>
@@ -20538,7 +20828,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>186</v>
       </c>
@@ -20549,7 +20839,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>192</v>
       </c>
@@ -20560,7 +20850,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>195</v>
       </c>
@@ -20571,7 +20861,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>198</v>
       </c>
@@ -20582,7 +20872,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>201</v>
       </c>
@@ -20593,7 +20883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>207</v>
       </c>
@@ -20604,7 +20894,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>210</v>
       </c>
@@ -20615,7 +20905,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>213</v>
       </c>
@@ -20626,7 +20916,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>216</v>
       </c>
@@ -20663,40 +20953,40 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="8" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="194.83203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="140.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="194.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="140.140625" style="8" customWidth="1"/>
     <col min="10" max="10" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="8" customWidth="1"/>
-    <col min="19" max="19" width="35.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="35.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="35.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.83203125" style="8"/>
+    <col min="25" max="16384" width="9.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -20721,7 +21011,7 @@
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
     </row>
-    <row r="4" spans="1:21" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -20746,7 +21036,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -20770,7 +21060,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>348</v>
       </c>
@@ -20778,7 +21068,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>349</v>
       </c>
@@ -20786,7 +21076,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>350</v>
       </c>
@@ -20794,7 +21084,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -20802,7 +21092,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>236</v>
       </c>
@@ -20811,7 +21101,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>236</v>
       </c>
@@ -20820,7 +21110,7 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>248</v>
       </c>
@@ -20828,12 +21118,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>534</v>
       </c>
@@ -20847,7 +21137,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>522</v>
       </c>
@@ -20858,7 +21148,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>578</v>
       </c>
@@ -20869,7 +21159,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="8" t="s">
         <v>383</v>
@@ -20878,7 +21168,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="8" t="s">
         <v>385</v>
@@ -20887,7 +21177,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
         <v>387</v>
@@ -20896,7 +21186,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="8" t="s">
         <v>389</v>
@@ -20905,7 +21195,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="8" t="s">
         <v>391</v>
@@ -20917,7 +21207,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="8" t="s">
         <v>394</v>
@@ -20929,7 +21219,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="8" t="s">
         <v>397</v>
@@ -20941,7 +21231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>400</v>
@@ -20953,19 +21243,19 @@
         <v>402</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
     </row>
-    <row r="33" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
     </row>
-    <row r="34" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
     </row>
-    <row r="35" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
     </row>
-    <row r="36" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -20987,7 +21277,7 @@
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
     </row>
-    <row r="37" spans="1:26" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>0</v>
       </c>
@@ -21012,7 +21302,7 @@
       <c r="T37" s="25"/>
       <c r="U37" s="25"/>
     </row>
-    <row r="38" spans="1:26" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>28</v>
       </c>
@@ -21037,7 +21327,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
-    <row r="39" spans="1:26" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>251</v>
       </c>
@@ -21062,7 +21352,7 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
     </row>
-    <row r="40" spans="1:26" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>252</v>
       </c>
@@ -21087,7 +21377,7 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
     </row>
-    <row r="41" spans="1:26" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>253</v>
       </c>
@@ -21112,7 +21402,7 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
     </row>
-    <row r="42" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>351</v>
       </c>
@@ -21192,7 +21482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>403</v>
       </c>
@@ -21260,7 +21550,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>418</v>
       </c>
@@ -21323,7 +21613,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>428</v>
       </c>
@@ -21386,7 +21676,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
         <v>566</v>
       </c>
@@ -21442,7 +21732,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -21461,7 +21751,7 @@
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
     </row>
-    <row r="48" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -21480,7 +21770,7 @@
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
     </row>
-    <row r="49" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -21500,7 +21790,7 @@
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
     </row>
-    <row r="50" spans="1:21" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>27</v>
       </c>
@@ -21525,7 +21815,7 @@
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
     </row>
-    <row r="51" spans="1:21" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>588</v>
       </c>
@@ -21550,7 +21840,7 @@
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
     </row>
-    <row r="52" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>249</v>
       </c>
@@ -21575,7 +21865,7 @@
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
     </row>
-    <row r="53" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>250</v>
       </c>
@@ -21600,7 +21890,7 @@
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
     </row>
-    <row r="54" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>362</v>
       </c>
@@ -21627,7 +21917,7 @@
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
     </row>
-    <row r="55" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>363</v>
       </c>
@@ -21654,7 +21944,7 @@
       <c r="T55" s="14"/>
       <c r="U55" s="14"/>
     </row>
-    <row r="56" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>368</v>
       </c>
@@ -21681,7 +21971,7 @@
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
     </row>
-    <row r="57" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -21703,7 +21993,7 @@
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
     </row>
-    <row r="58" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>364</v>
       </c>
@@ -21730,7 +22020,7 @@
       <c r="T58" s="14"/>
       <c r="U58" s="14"/>
     </row>
-    <row r="59" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>364</v>
       </c>
@@ -21757,7 +22047,7 @@
       <c r="T59" s="14"/>
       <c r="U59" s="14"/>
     </row>
-    <row r="60" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>364</v>
       </c>
@@ -21782,7 +22072,7 @@
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
     </row>
-    <row r="61" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>364</v>
       </c>
@@ -21807,7 +22097,7 @@
       <c r="T61" s="14"/>
       <c r="U61" s="14"/>
     </row>
-    <row r="62" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>364</v>
       </c>
@@ -21832,7 +22122,7 @@
       <c r="T62" s="14"/>
       <c r="U62" s="14"/>
     </row>
-    <row r="63" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>365</v>
       </c>
@@ -21859,7 +22149,7 @@
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
     </row>
-    <row r="64" spans="1:21" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>366</v>
       </c>
@@ -21886,7 +22176,7 @@
       <c r="T64" s="14"/>
       <c r="U64" s="14"/>
     </row>
-    <row r="65" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>366</v>
       </c>
@@ -21912,7 +22202,7 @@
       <c r="T65" s="14"/>
       <c r="U65" s="14"/>
     </row>
-    <row r="66" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>366</v>
       </c>
@@ -21939,7 +22229,7 @@
       <c r="T66" s="27"/>
       <c r="U66" s="27"/>
     </row>
-    <row r="67" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>366</v>
       </c>
@@ -21966,7 +22256,7 @@
       <c r="T67" s="27"/>
       <c r="U67" s="27"/>
     </row>
-    <row r="68" spans="1:25" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>5</v>
       </c>
@@ -21992,7 +22282,7 @@
       <c r="U68" s="25"/>
       <c r="Y68" s="8"/>
     </row>
-    <row r="69" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>31</v>
       </c>
@@ -22017,7 +22307,7 @@
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
     </row>
-    <row r="70" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>254</v>
       </c>
@@ -22042,7 +22332,7 @@
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
     </row>
-    <row r="71" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>32</v>
       </c>
@@ -22067,7 +22357,7 @@
       <c r="T71" s="11"/>
       <c r="U71" s="11"/>
     </row>
-    <row r="72" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>6</v>
       </c>
@@ -22096,7 +22386,7 @@
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
     </row>
-    <row r="73" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>412</v>
       </c>
@@ -22107,7 +22397,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>415</v>
       </c>
@@ -22118,7 +22408,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>424</v>
       </c>
@@ -22126,7 +22416,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>426</v>
       </c>
@@ -22134,7 +22424,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>434</v>
       </c>
@@ -22142,7 +22432,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>436</v>
       </c>
@@ -22150,7 +22440,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>576</v>
       </c>
@@ -22180,41 +22470,41 @@
       <selection activeCell="A32" sqref="A32:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.83203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="60.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="59.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="60.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="59.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="89.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="88.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="83.6640625" style="8"/>
+    <col min="20" max="21" width="60.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="59.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="60.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="59.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="89.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="88.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="83.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -22241,7 +22531,7 @@
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
     </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -22268,7 +22558,7 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
     </row>
-    <row r="5" spans="1:23" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -22294,7 +22584,7 @@
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>348</v>
       </c>
@@ -22302,7 +22592,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>349</v>
       </c>
@@ -22310,7 +22600,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>350</v>
       </c>
@@ -22318,7 +22608,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>236</v>
       </c>
@@ -22326,7 +22616,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>236</v>
       </c>
@@ -22335,7 +22625,7 @@
       </c>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>236</v>
       </c>
@@ -22344,28 +22634,28 @@
       </c>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>248</v>
       </c>
       <c r="D12" s="27"/>
     </row>
-    <row r="14" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
     </row>
-    <row r="15" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
     </row>
-    <row r="17" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
     </row>
-    <row r="19" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -22390,7 +22680,7 @@
       <c r="V19" s="30"/>
       <c r="W19" s="30"/>
     </row>
-    <row r="20" spans="1:25" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -22417,7 +22707,7 @@
       <c r="V20" s="24"/>
       <c r="W20" s="25"/>
     </row>
-    <row r="21" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
@@ -22444,7 +22734,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="11"/>
     </row>
-    <row r="22" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>251</v>
       </c>
@@ -22471,7 +22761,7 @@
       <c r="V22" s="10"/>
       <c r="W22" s="11"/>
     </row>
-    <row r="23" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>252</v>
       </c>
@@ -22498,7 +22788,7 @@
       <c r="V23" s="10"/>
       <c r="W23" s="11"/>
     </row>
-    <row r="24" spans="1:25" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>253</v>
       </c>
@@ -22525,7 +22815,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="11"/>
     </row>
-    <row r="25" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>351</v>
       </c>
@@ -22602,7 +22892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>459</v>
       </c>
@@ -22679,7 +22969,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>472</v>
       </c>
@@ -22756,7 +23046,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>483</v>
       </c>
@@ -22833,7 +23123,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>494</v>
       </c>
@@ -22910,7 +23200,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -22935,7 +23225,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
     </row>
-    <row r="31" spans="1:25" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -22960,7 +23250,7 @@
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="1:25" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
@@ -22987,7 +23277,7 @@
       <c r="V32" s="24"/>
       <c r="W32" s="25"/>
     </row>
-    <row r="33" spans="1:23" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>588</v>
       </c>
@@ -23014,7 +23304,7 @@
       <c r="V33" s="10"/>
       <c r="W33" s="11"/>
     </row>
-    <row r="34" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>249</v>
       </c>
@@ -23043,7 +23333,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
     </row>
-    <row r="35" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>250</v>
       </c>
@@ -23072,7 +23362,7 @@
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
     </row>
-    <row r="36" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>362</v>
       </c>
@@ -23101,7 +23391,7 @@
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
     </row>
-    <row r="37" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>363</v>
       </c>
@@ -23130,7 +23420,7 @@
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
     </row>
-    <row r="38" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>368</v>
       </c>
@@ -23158,7 +23448,7 @@
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
     </row>
-    <row r="39" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -23182,7 +23472,7 @@
       <c r="U39" s="14"/>
       <c r="V39" s="14"/>
     </row>
-    <row r="40" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>364</v>
       </c>
@@ -23210,7 +23500,7 @@
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
     </row>
-    <row r="41" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>364</v>
       </c>
@@ -23238,7 +23528,7 @@
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
     </row>
-    <row r="42" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>364</v>
       </c>
@@ -23266,7 +23556,7 @@
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
     </row>
-    <row r="43" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>364</v>
       </c>
@@ -23292,7 +23582,7 @@
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
     </row>
-    <row r="44" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>364</v>
       </c>
@@ -23318,7 +23608,7 @@
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
     </row>
-    <row r="45" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>365</v>
       </c>
@@ -23346,7 +23636,7 @@
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
     </row>
-    <row r="46" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>366</v>
       </c>
@@ -23375,7 +23665,7 @@
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
     </row>
-    <row r="47" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>366</v>
       </c>
@@ -23404,7 +23694,7 @@
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
     </row>
-    <row r="48" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>366</v>
       </c>
@@ -23433,7 +23723,7 @@
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
     </row>
-    <row r="49" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>366</v>
       </c>
@@ -23462,7 +23752,7 @@
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
     </row>
-    <row r="50" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>366</v>
       </c>
@@ -23491,7 +23781,7 @@
       <c r="V50" s="14"/>
       <c r="W50" s="14"/>
     </row>
-    <row r="51" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>366</v>
       </c>
@@ -23520,7 +23810,7 @@
       <c r="V51" s="14"/>
       <c r="W51" s="14"/>
     </row>
-    <row r="52" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>366</v>
       </c>
@@ -23549,7 +23839,7 @@
       <c r="V52" s="14"/>
       <c r="W52" s="14"/>
     </row>
-    <row r="53" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>366</v>
       </c>
@@ -23578,7 +23868,7 @@
       <c r="V53" s="14"/>
       <c r="W53" s="14"/>
     </row>
-    <row r="54" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>366</v>
       </c>
@@ -23607,7 +23897,7 @@
       <c r="V54" s="14"/>
       <c r="W54" s="14"/>
     </row>
-    <row r="55" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
@@ -23632,7 +23922,7 @@
       <c r="V55" s="27"/>
       <c r="W55" s="27"/>
     </row>
-    <row r="56" spans="1:23" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>5</v>
       </c>
@@ -23659,7 +23949,7 @@
       <c r="V56" s="24"/>
       <c r="W56" s="25"/>
     </row>
-    <row r="57" spans="1:23" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>31</v>
       </c>
@@ -23686,7 +23976,7 @@
       <c r="V57" s="10"/>
       <c r="W57" s="11"/>
     </row>
-    <row r="58" spans="1:23" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>254</v>
       </c>
@@ -23713,7 +24003,7 @@
       <c r="V58" s="10"/>
       <c r="W58" s="11"/>
     </row>
-    <row r="59" spans="1:23" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" s="12" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>32</v>
       </c>
@@ -23740,7 +24030,7 @@
       <c r="V59" s="10"/>
       <c r="W59" s="11"/>
     </row>
-    <row r="60" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>6</v>
       </c>
@@ -23771,7 +24061,7 @@
       <c r="V60" s="36"/>
       <c r="W60" s="36"/>
     </row>
-    <row r="61" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>536</v>
       </c>
@@ -23782,7 +24072,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>539</v>
       </c>
@@ -23793,7 +24083,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>542</v>
       </c>
@@ -23804,7 +24094,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>545</v>
       </c>
@@ -23815,7 +24105,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>548</v>
       </c>
@@ -23826,7 +24116,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>551</v>
       </c>
@@ -23837,7 +24127,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>554</v>
       </c>
@@ -23848,7 +24138,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>557</v>
       </c>
@@ -23862,13 +24152,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="uHeIq0fTY+SkfiG0BUBfkRWN7VsHdDGQfAJwovwYuwp6zuFwWIwuY7JnUgHrIwBV4G25XMH5B7S3rMfU5U3akw==" saltValue="Zz3TVxIHK82bnZabgvGk9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="A61:E69">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:Y31">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26:Y31">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from the drop down menu" sqref="I30:K32" xr:uid="{79D6ECAE-44AD-41AB-84C9-88F44BE0AE81}">
@@ -23889,13 +24179,13 @@
       <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>272</v>
       </c>
@@ -23903,7 +24193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
@@ -23911,7 +24201,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>231</v>
       </c>
@@ -23919,7 +24209,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>227</v>
       </c>
@@ -23927,7 +24217,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -23935,7 +24225,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -23943,7 +24233,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>286</v>
       </c>
@@ -23951,7 +24241,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>287</v>
       </c>
@@ -23959,7 +24249,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -23967,7 +24257,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -23975,7 +24265,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -23983,7 +24273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>276</v>
       </c>
@@ -23991,7 +24281,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>277</v>
       </c>
@@ -23999,7 +24289,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -24007,7 +24297,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -24015,7 +24305,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -24023,7 +24313,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>280</v>
       </c>
@@ -24031,7 +24321,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>281</v>
       </c>
@@ -24039,7 +24329,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>282</v>
       </c>
@@ -24047,7 +24337,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>283</v>
       </c>
@@ -24055,7 +24345,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -24063,7 +24353,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -24071,7 +24361,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>289</v>
       </c>
@@ -24079,7 +24369,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -24087,7 +24377,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>291</v>
       </c>
@@ -24095,7 +24385,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -24103,7 +24393,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -24111,157 +24401,157 @@
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>325</v>
       </c>

--- a/ncbi_submission/seq_template.xlsx
+++ b/ncbi_submission/seq_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\zebrafish_mecp2_expression\ncbi_submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C132ECB2-978D-48FB-BA2D-89C8BA8F7BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4BF04-3A25-4E13-B0B9-B730C96EBDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qZzD4R9MHkY34uacjqt3UDyeD61BQpRgIo5GituA+M5TJZYrZGlKZCDSkAkMk0lzHa20F9kBcNHoSPrpZkW+dg==" workbookSaltValue="NTRFdVUfx51db2iwG+fWhA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="874" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -6219,7 +6219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="741">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -8852,9 +8852,6 @@
     <t>Danio rerio</t>
   </si>
   <si>
-    <t>Embryo</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -8993,66 +8990,6 @@
     <t>GRCz11</t>
   </si>
   <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 1</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 2</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 3</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 4</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 5</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 6</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 7</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 8</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 9</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Mutant 10</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 1</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 2</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 3</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 4</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 5</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 6</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 7</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 8</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 9</t>
-  </si>
-  <si>
-    <t>S4D Zebrafish Transcriptome - Wild Type 10</t>
-  </si>
-  <si>
     <t>mecp2 Q63X</t>
   </si>
   <si>
@@ -9213,6 +9150,72 @@
   </si>
   <si>
     <t>To investigate the role of MeCP2 as a transcriptional regulator in zebrafish, we performed differential gene expression analyses on 10 mutant and 10 wild type samples and highlighting the effects of the Q63X mutation in MECP2 in various molecular pathways.</t>
+  </si>
+  <si>
+    <t>Embryo; 4dpf</t>
+  </si>
+  <si>
+    <t>Embryo; whole larvae</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 1</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 2</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 3</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 4</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 5</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 6</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 7</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 8</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 9</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Mutant 10</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 1</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 2</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 3</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 4</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 5</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 6</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 7</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 8</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 9</t>
+  </si>
+  <si>
+    <t>Zebrafish Transcriptome - mecp2 Wild Type 10</t>
   </si>
 </sst>
 </file>
@@ -10013,18 +10016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -10038,6 +10029,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -14396,10 +14399,10 @@
   </sheetPr>
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="236" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A29" sqref="A29"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -14415,7 +14418,8 @@
     <col min="12" max="12" width="25.7109375" style="8" customWidth="1"/>
     <col min="13" max="13" width="20.140625" style="8" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="36" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.140625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="38.5703125" style="8" customWidth="1"/>
     <col min="17" max="19" width="20" style="8" customWidth="1"/>
     <col min="20" max="16384" width="83.7109375" style="8"/>
   </cols>
@@ -14527,7 +14531,7 @@
         <v>348</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="C11" s="51"/>
     </row>
@@ -14536,10 +14540,10 @@
         <v>349</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -14547,7 +14551,7 @@
         <v>350</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -14555,7 +14559,7 @@
         <v>236</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -14563,7 +14567,7 @@
         <v>236</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -14571,7 +14575,7 @@
         <v>236</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="E16" s="27"/>
     </row>
@@ -14580,7 +14584,7 @@
         <v>236</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="E17" s="27"/>
     </row>
@@ -14589,7 +14593,7 @@
         <v>354</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -14819,25 +14823,25 @@
         <v>598</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D34" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>10</v>
@@ -14849,17 +14853,17 @@
         <v>82</v>
       </c>
       <c r="L34" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M34" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -14867,25 +14871,25 @@
         <v>600</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D35" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>10</v>
@@ -14897,17 +14901,17 @@
         <v>82</v>
       </c>
       <c r="L35" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M35" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P35" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -14915,25 +14919,25 @@
         <v>601</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D36" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>10</v>
@@ -14945,17 +14949,17 @@
         <v>82</v>
       </c>
       <c r="L36" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M36" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P36" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -14963,25 +14967,25 @@
         <v>602</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>10</v>
@@ -14993,17 +14997,17 @@
         <v>82</v>
       </c>
       <c r="L37" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M37" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15011,25 +15015,25 @@
         <v>603</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D38" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>10</v>
@@ -15041,17 +15045,17 @@
         <v>82</v>
       </c>
       <c r="L38" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M38" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15059,25 +15063,25 @@
         <v>604</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>10</v>
@@ -15089,17 +15093,17 @@
         <v>82</v>
       </c>
       <c r="L39" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M39" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M39" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15107,25 +15111,25 @@
         <v>605</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D40" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H40" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>10</v>
@@ -15137,17 +15141,17 @@
         <v>82</v>
       </c>
       <c r="L40" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M40" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15155,25 +15159,25 @@
         <v>606</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D41" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>10</v>
@@ -15185,17 +15189,17 @@
         <v>82</v>
       </c>
       <c r="L41" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M41" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N41" s="14"/>
       <c r="O41" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15203,25 +15207,25 @@
         <v>607</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D42" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>10</v>
@@ -15233,17 +15237,17 @@
         <v>82</v>
       </c>
       <c r="L42" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M42" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N42" s="14"/>
       <c r="O42" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15251,25 +15255,25 @@
         <v>599</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>10</v>
@@ -15281,17 +15285,17 @@
         <v>82</v>
       </c>
       <c r="L43" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M43" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P43" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15299,25 +15303,25 @@
         <v>608</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I44" s="14" t="s">
         <v>10</v>
@@ -15329,17 +15333,17 @@
         <v>82</v>
       </c>
       <c r="L44" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M44" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15347,25 +15351,25 @@
         <v>610</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D45" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>10</v>
@@ -15377,17 +15381,17 @@
         <v>82</v>
       </c>
       <c r="L45" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M45" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15395,25 +15399,25 @@
         <v>611</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D46" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>10</v>
@@ -15425,17 +15429,17 @@
         <v>82</v>
       </c>
       <c r="L46" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M46" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N46" s="14"/>
       <c r="O46" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15443,25 +15447,25 @@
         <v>612</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D47" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>10</v>
@@ -15473,17 +15477,17 @@
         <v>82</v>
       </c>
       <c r="L47" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M47" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P47" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -15491,25 +15495,25 @@
         <v>613</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D48" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H48" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>10</v>
@@ -15521,17 +15525,17 @@
         <v>82</v>
       </c>
       <c r="L48" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M48" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N48" s="14"/>
       <c r="O48" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -15539,25 +15543,25 @@
         <v>614</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D49" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H49" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>10</v>
@@ -15569,17 +15573,17 @@
         <v>82</v>
       </c>
       <c r="L49" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M49" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M49" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -15587,25 +15591,25 @@
         <v>615</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D50" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H50" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>10</v>
@@ -15617,17 +15621,17 @@
         <v>82</v>
       </c>
       <c r="L50" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M50" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N50" s="14"/>
       <c r="O50" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -15635,25 +15639,25 @@
         <v>616</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D51" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H51" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>10</v>
@@ -15665,17 +15669,17 @@
         <v>82</v>
       </c>
       <c r="L51" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M51" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M51" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -15683,25 +15687,25 @@
         <v>617</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D52" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H52" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>10</v>
@@ -15713,17 +15717,17 @@
         <v>82</v>
       </c>
       <c r="L52" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M52" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M52" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N52" s="14"/>
       <c r="O52" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
@@ -15731,25 +15735,25 @@
         <v>609</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>618</v>
       </c>
       <c r="D53" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="H53" s="14" t="s">
         <v>619</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>620</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>10</v>
@@ -15761,17 +15765,17 @@
         <v>82</v>
       </c>
       <c r="L53" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M53" s="14" t="s">
         <v>661</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -15954,7 +15958,7 @@
         <v>362</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -15972,12 +15976,12 @@
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="51" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -16000,7 +16004,7 @@
         <v>368</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -16037,12 +16041,12 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:19" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>364</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -16149,7 +16153,7 @@
         <v>365</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -16172,7 +16176,7 @@
         <v>366</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
@@ -16341,162 +16345,162 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -16550,7 +16554,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="List the genotype (if applicable). If not applicable change &quot;genotype&quot; to something else. For example: strain, sex, cultivar, breed, age, developmental stage, etc" sqref="H57:H58 E34:E53 G34:G56" xr:uid="{E4E9BB68-E9AC-40EB-9161-0960CBF212EC}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" prompt="Treatment(s) applied to the sample. If no treatments were applied enter 'none'. _x000a_**NOTE: You can insert additional columns before 'molecule' and add more sample descriptions - clinical data, for example**_x000a_" sqref="I57:I58 H54:H56" xr:uid="{47B6B633-8A68-4530-9AD8-BD49CE875996}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the library strategy. For example: RNA-seq, scRNA-seq, CITE-seq, Spatial Transcriptomics, ChIP-Seq, CUT&amp;Tag, Bisulfite-seq, ATAC-seq, Hi-C, and so on..." sqref="B65" xr:uid="{3E1B337C-0FAB-46AD-AF75-6E2448C62637}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Each sample title should be unique. _x000a_Use biol/tech rep numbers (when _x000a_applicable) to unique the titles. _x000a_For example:_x000a_Muscle, exercised, 60min, biol rep1_x000a_Muscle, exercised, 60min, biol rep2_x000a_" sqref="A43:B43 B34:B42 C34:C58 B44:B58" xr:uid="{16FCC838-0E0E-48E4-B2AA-D96D65E76279}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Each sample title should be unique. _x000a_Use biol/tech rep numbers (when _x000a_applicable) to unique the titles. _x000a_For example:_x000a_Muscle, exercised, 60min, biol rep1_x000a_Muscle, exercised, 60min, biol rep2_x000a_" sqref="A43 B34:C58" xr:uid="{16FCC838-0E0E-48E4-B2AA-D96D65E76279}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16590,32 +16594,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="80" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="75"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
     </row>
     <row r="6" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -16712,80 +16716,80 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="76" t="s">
         <v>563</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="76"/>
     </row>
     <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="79" t="s">
         <v>591</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="79"/>
       <c r="F20" s="63"/>
     </row>
     <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="79"/>
     </row>
     <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
     </row>
     <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -16813,8 +16817,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16874,328 +16878,328 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>712</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -17215,7 +17219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B97CE2-DFAA-450B-948E-0D22EC57AEF0}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
